--- a/SchedulingData/dynamic10/pso/scheduling2_14.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_14.xlsx
@@ -466,169 +466,169 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>245.38</v>
+        <v>229.4</v>
       </c>
       <c r="D2" t="n">
-        <v>291.54</v>
+        <v>299.9</v>
       </c>
       <c r="E2" t="n">
-        <v>12.036</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>245.22</v>
+        <v>221.08</v>
       </c>
       <c r="D3" t="n">
-        <v>314.38</v>
+        <v>274.74</v>
       </c>
       <c r="E3" t="n">
-        <v>14.212</v>
+        <v>14.516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>224.16</v>
+        <v>241.22</v>
       </c>
       <c r="D4" t="n">
-        <v>278.34</v>
+        <v>283.82</v>
       </c>
       <c r="E4" t="n">
-        <v>12.836</v>
+        <v>13.288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>241.02</v>
+        <v>225.12</v>
       </c>
       <c r="D5" t="n">
-        <v>289.34</v>
+        <v>262.62</v>
       </c>
       <c r="E5" t="n">
-        <v>15.156</v>
+        <v>12.548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>278.34</v>
+        <v>262.62</v>
       </c>
       <c r="D6" t="n">
-        <v>315.34</v>
+        <v>306.9</v>
       </c>
       <c r="E6" t="n">
-        <v>10.756</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>289.34</v>
+        <v>283.82</v>
       </c>
       <c r="D7" t="n">
-        <v>332.26</v>
+        <v>345.62</v>
       </c>
       <c r="E7" t="n">
-        <v>12.504</v>
+        <v>11.208</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>230.6</v>
+        <v>299.9</v>
       </c>
       <c r="D8" t="n">
-        <v>272.72</v>
+        <v>351.16</v>
       </c>
       <c r="E8" t="n">
-        <v>11.388</v>
+        <v>11.004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>291.54</v>
+        <v>218.18</v>
       </c>
       <c r="D9" t="n">
-        <v>350.04</v>
+        <v>280.68</v>
       </c>
       <c r="E9" t="n">
-        <v>8.795999999999999</v>
+        <v>13.552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>272.72</v>
+        <v>232.3</v>
       </c>
       <c r="D10" t="n">
-        <v>314.28</v>
+        <v>295.14</v>
       </c>
       <c r="E10" t="n">
-        <v>8.372</v>
+        <v>13.096</v>
       </c>
     </row>
     <row r="11">
@@ -637,74 +637,74 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>350.04</v>
+        <v>351.16</v>
       </c>
       <c r="D11" t="n">
-        <v>410.24</v>
+        <v>397.8</v>
       </c>
       <c r="E11" t="n">
-        <v>6.376</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>315.34</v>
+        <v>280.68</v>
       </c>
       <c r="D12" t="n">
-        <v>389.42</v>
+        <v>338.38</v>
       </c>
       <c r="E12" t="n">
-        <v>7.948</v>
+        <v>11.392</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>332.26</v>
+        <v>306.9</v>
       </c>
       <c r="D13" t="n">
-        <v>385.28</v>
+        <v>378.92</v>
       </c>
       <c r="E13" t="n">
-        <v>9.311999999999999</v>
+        <v>7.148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>314.38</v>
+        <v>295.14</v>
       </c>
       <c r="D14" t="n">
-        <v>348.34</v>
+        <v>344.2</v>
       </c>
       <c r="E14" t="n">
-        <v>11.456</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="15">
@@ -713,264 +713,264 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>210.6</v>
+        <v>338.38</v>
       </c>
       <c r="D15" t="n">
-        <v>266.64</v>
+        <v>373</v>
       </c>
       <c r="E15" t="n">
-        <v>15.376</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>385.28</v>
+        <v>345.62</v>
       </c>
       <c r="D16" t="n">
-        <v>420</v>
+        <v>389.9</v>
       </c>
       <c r="E16" t="n">
-        <v>6.98</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>266.64</v>
+        <v>274.74</v>
       </c>
       <c r="D17" t="n">
-        <v>332.14</v>
+        <v>320.04</v>
       </c>
       <c r="E17" t="n">
-        <v>10.936</v>
+        <v>12.096</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>332.14</v>
+        <v>344.2</v>
       </c>
       <c r="D18" t="n">
-        <v>387.2</v>
+        <v>396.66</v>
       </c>
       <c r="E18" t="n">
-        <v>8.56</v>
+        <v>6.684</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>314.28</v>
+        <v>378.92</v>
       </c>
       <c r="D19" t="n">
-        <v>371.88</v>
+        <v>423.22</v>
       </c>
       <c r="E19" t="n">
-        <v>5.732</v>
+        <v>3.848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>348.34</v>
+        <v>397.8</v>
       </c>
       <c r="D20" t="n">
-        <v>414.88</v>
+        <v>437.76</v>
       </c>
       <c r="E20" t="n">
-        <v>8.432</v>
+        <v>5.604</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>387.2</v>
+        <v>389.9</v>
       </c>
       <c r="D21" t="n">
-        <v>449.9</v>
+        <v>428.66</v>
       </c>
       <c r="E21" t="n">
-        <v>5.92</v>
+        <v>5.664</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>414.88</v>
+        <v>320.04</v>
       </c>
       <c r="D22" t="n">
-        <v>479.08</v>
+        <v>361.28</v>
       </c>
       <c r="E22" t="n">
-        <v>5.132</v>
+        <v>8.612</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="D23" t="n">
-        <v>452.9</v>
+        <v>420.62</v>
       </c>
       <c r="E23" t="n">
-        <v>4.82</v>
+        <v>6.408</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>389.42</v>
+        <v>437.76</v>
       </c>
       <c r="D24" t="n">
-        <v>450.2</v>
+        <v>487.28</v>
       </c>
       <c r="E24" t="n">
-        <v>5.5</v>
+        <v>3.272</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>452.9</v>
+        <v>420.62</v>
       </c>
       <c r="D25" t="n">
-        <v>507.12</v>
+        <v>469.32</v>
       </c>
       <c r="E25" t="n">
-        <v>2.488</v>
+        <v>3.168</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>449.9</v>
+        <v>396.66</v>
       </c>
       <c r="D26" t="n">
-        <v>487.3</v>
+        <v>437.44</v>
       </c>
       <c r="E26" t="n">
-        <v>3.8</v>
+        <v>4.236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450.2</v>
+        <v>428.66</v>
       </c>
       <c r="D27" t="n">
-        <v>504.3</v>
+        <v>479.62</v>
       </c>
       <c r="E27" t="n">
-        <v>2.2</v>
+        <v>3.168</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>371.88</v>
+        <v>361.28</v>
       </c>
       <c r="D28" t="n">
-        <v>425.02</v>
+        <v>400.68</v>
       </c>
       <c r="E28" t="n">
-        <v>3.028</v>
+        <v>5.312</v>
       </c>
     </row>
   </sheetData>
